--- a/book_rental/management/commands/uploads/rent_price.xlsx
+++ b/book_rental/management/commands/uploads/rent_price.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="31">
   <si>
     <t>Rent Code</t>
   </si>
@@ -49,7 +49,7 @@
     <t>B-000001</t>
   </si>
   <si>
-    <t>CO</t>
+    <t>COL</t>
   </si>
   <si>
     <t>BDT</t>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>RP-000003</t>
-  </si>
-  <si>
-    <t>20/12/2017 0:00:00</t>
   </si>
   <si>
     <t>RP-000004</t>
@@ -113,8 +110,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m-d-yyyy h:mm:ss"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy h:mm:ss"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -153,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -164,6 +162,9 @@
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment/>
     </xf>
   </cellXfs>
@@ -282,11 +283,14 @@
       <c r="F4" s="1">
         <v>1.0</v>
       </c>
-      <c r="G4" s="3">
-        <v>43020.0</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>16</v>
+      <c r="G4" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>42948.0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>42959.0</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>13</v>
@@ -294,7 +298,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
@@ -317,7 +321,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
@@ -340,7 +344,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
@@ -363,7 +367,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
@@ -386,7 +390,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>11</v>
@@ -409,7 +413,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>11</v>
@@ -432,7 +436,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>11</v>
@@ -455,7 +459,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
@@ -478,7 +482,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>11</v>
@@ -501,7 +505,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>11</v>
@@ -524,7 +528,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>11</v>
@@ -547,7 +551,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>11</v>
@@ -570,7 +574,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>11</v>
@@ -593,7 +597,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>11</v>
@@ -616,7 +620,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>11</v>
